--- a/target/test-classes/testdata/TestData.xlsx
+++ b/target/test-classes/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\seleniumJava\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829571E-1481-4AF4-AE19-90767443DD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5345D6-DBF3-40A3-A8A7-47800DFECC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="1720" windowWidth="14400" windowHeight="7360" xr2:uid="{0D6B915E-7FF5-418F-839A-4F44DD84DC0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>FirstName</t>
   </si>
@@ -85,6 +85,81 @@
   </si>
   <si>
     <t>b1234</t>
+  </si>
+  <si>
+    <t>firstName3</t>
+  </si>
+  <si>
+    <t>firstName4</t>
+  </si>
+  <si>
+    <t>firstName5</t>
+  </si>
+  <si>
+    <t>firstName6</t>
+  </si>
+  <si>
+    <t>lastName3</t>
+  </si>
+  <si>
+    <t>lastName4</t>
+  </si>
+  <si>
+    <t>lastName5</t>
+  </si>
+  <si>
+    <t>lastName6</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>address4</t>
+  </si>
+  <si>
+    <t>address5</t>
+  </si>
+  <si>
+    <t>address6</t>
+  </si>
+  <si>
+    <t>city3</t>
+  </si>
+  <si>
+    <t>city4</t>
+  </si>
+  <si>
+    <t>city5</t>
+  </si>
+  <si>
+    <t>city6</t>
+  </si>
+  <si>
+    <t>c1234</t>
+  </si>
+  <si>
+    <t>d1234</t>
+  </si>
+  <si>
+    <t>e1234</t>
+  </si>
+  <si>
+    <t>f1234</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>tc3</t>
+  </si>
+  <si>
+    <t>tc4</t>
+  </si>
+  <si>
+    <t>tc5</t>
+  </si>
+  <si>
+    <t>tc6</t>
   </si>
 </sst>
 </file>
@@ -436,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6978804A-6571-4281-AD8B-52553D288BA2}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,6 +594,98 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
